--- a/US/data/BOC/FTD/FTDE/UPPCO_M_historical.xlsx
+++ b/US/data/BOC/FTD/FTDE/UPPCO_M_historical.xlsx
@@ -2531,40 +2531,40 @@
         <v>246584</v>
       </c>
       <c r="IT2" t="n">
-        <v>229745</v>
+        <v>221352</v>
       </c>
       <c r="IU2" t="n">
-        <v>178698</v>
+        <v>169964</v>
       </c>
       <c r="IV2" t="n">
-        <v>193074</v>
+        <v>201103</v>
       </c>
       <c r="IW2" t="n">
-        <v>229147</v>
+        <v>218638</v>
       </c>
       <c r="IX2" t="n">
-        <v>215940</v>
+        <v>221553</v>
       </c>
       <c r="IY2" t="n">
-        <v>241950</v>
+        <v>243063</v>
       </c>
       <c r="IZ2" t="n">
-        <v>229153</v>
+        <v>223122</v>
       </c>
       <c r="JA2" t="n">
-        <v>234396</v>
+        <v>235699</v>
       </c>
       <c r="JB2" t="n">
-        <v>196555</v>
+        <v>195625</v>
       </c>
       <c r="JC2" t="n">
-        <v>223118</v>
+        <v>213004</v>
       </c>
       <c r="JD2" t="n">
-        <v>234078</v>
+        <v>236306</v>
       </c>
       <c r="JE2" t="n">
-        <v>256697</v>
+        <v>259293</v>
       </c>
       <c r="JF2" t="n">
         <v>228667</v>
@@ -2572,8 +2572,12 @@
       <c r="JG2" t="n">
         <v>209798</v>
       </c>
-      <c r="JH2" t="inlineStr"/>
-      <c r="JI2" t="inlineStr"/>
+      <c r="JH2" t="n">
+        <v>248185</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>240536</v>
+      </c>
       <c r="JJ2" t="inlineStr"/>
       <c r="JK2" t="inlineStr"/>
       <c r="JL2" t="inlineStr"/>
@@ -3359,40 +3363,40 @@
         <v>10838016</v>
       </c>
       <c r="IT3" t="n">
-        <v>11124928</v>
+        <v>10848285</v>
       </c>
       <c r="IU3" t="n">
-        <v>9415454</v>
+        <v>9178129</v>
       </c>
       <c r="IV3" t="n">
-        <v>11006621</v>
+        <v>11628122</v>
       </c>
       <c r="IW3" t="n">
-        <v>13119524</v>
+        <v>12537372</v>
       </c>
       <c r="IX3" t="n">
-        <v>12915376</v>
+        <v>13386081</v>
       </c>
       <c r="IY3" t="n">
-        <v>15240722</v>
+        <v>15282264</v>
       </c>
       <c r="IZ3" t="n">
-        <v>14988792</v>
+        <v>14625015</v>
       </c>
       <c r="JA3" t="n">
-        <v>15496984</v>
+        <v>15467171</v>
       </c>
       <c r="JB3" t="n">
-        <v>13100089</v>
+        <v>13128471</v>
       </c>
       <c r="JC3" t="n">
-        <v>16604226</v>
+        <v>15783331</v>
       </c>
       <c r="JD3" t="n">
-        <v>17616374</v>
+        <v>17703921</v>
       </c>
       <c r="JE3" t="n">
-        <v>17725522</v>
+        <v>17989618</v>
       </c>
       <c r="JF3" t="n">
         <v>16770391</v>
@@ -3400,8 +3404,12 @@
       <c r="JG3" t="n">
         <v>17072718</v>
       </c>
-      <c r="JH3" t="inlineStr"/>
-      <c r="JI3" t="inlineStr"/>
+      <c r="JH3" t="n">
+        <v>22859336</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>23487316</v>
+      </c>
       <c r="JJ3" t="inlineStr"/>
       <c r="JK3" t="inlineStr"/>
       <c r="JL3" t="inlineStr"/>
@@ -4187,40 +4195,40 @@
         <v>103986</v>
       </c>
       <c r="IT4" t="n">
-        <v>95336</v>
+        <v>95568</v>
       </c>
       <c r="IU4" t="n">
-        <v>73979</v>
+        <v>70145</v>
       </c>
       <c r="IV4" t="n">
-        <v>81052</v>
+        <v>84859</v>
       </c>
       <c r="IW4" t="n">
-        <v>97086</v>
+        <v>93818</v>
       </c>
       <c r="IX4" t="n">
-        <v>84061</v>
+        <v>87109</v>
       </c>
       <c r="IY4" t="n">
-        <v>104618</v>
+        <v>106539</v>
       </c>
       <c r="IZ4" t="n">
-        <v>83694</v>
+        <v>83829</v>
       </c>
       <c r="JA4" t="n">
-        <v>95348</v>
+        <v>95239</v>
       </c>
       <c r="JB4" t="n">
-        <v>79996</v>
+        <v>76006</v>
       </c>
       <c r="JC4" t="n">
-        <v>89908</v>
+        <v>86154</v>
       </c>
       <c r="JD4" t="n">
-        <v>93192</v>
+        <v>93977</v>
       </c>
       <c r="JE4" t="n">
-        <v>107716</v>
+        <v>106493</v>
       </c>
       <c r="JF4" t="n">
         <v>103337</v>
@@ -4228,8 +4236,12 @@
       <c r="JG4" t="n">
         <v>92504</v>
       </c>
-      <c r="JH4" t="inlineStr"/>
-      <c r="JI4" t="inlineStr"/>
+      <c r="JH4" t="n">
+        <v>102351</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>97163</v>
+      </c>
       <c r="JJ4" t="inlineStr"/>
       <c r="JK4" t="inlineStr"/>
       <c r="JL4" t="inlineStr"/>
@@ -5015,40 +5027,40 @@
         <v>3354</v>
       </c>
       <c r="IT5" t="n">
-        <v>3075</v>
+        <v>3083</v>
       </c>
       <c r="IU5" t="n">
-        <v>2642</v>
+        <v>2505</v>
       </c>
       <c r="IV5" t="n">
-        <v>2615</v>
+        <v>2737</v>
       </c>
       <c r="IW5" t="n">
-        <v>3236</v>
+        <v>3127</v>
       </c>
       <c r="IX5" t="n">
-        <v>2712</v>
+        <v>2810</v>
       </c>
       <c r="IY5" t="n">
-        <v>3487</v>
+        <v>3551</v>
       </c>
       <c r="IZ5" t="n">
-        <v>2700</v>
+        <v>2704</v>
       </c>
       <c r="JA5" t="n">
-        <v>3076</v>
+        <v>3072</v>
       </c>
       <c r="JB5" t="n">
-        <v>2667</v>
+        <v>2534</v>
       </c>
       <c r="JC5" t="n">
-        <v>2900</v>
+        <v>2779</v>
       </c>
       <c r="JD5" t="n">
-        <v>3106</v>
+        <v>3133</v>
       </c>
       <c r="JE5" t="n">
-        <v>3475</v>
+        <v>3435</v>
       </c>
       <c r="JF5" t="n">
         <v>3333</v>
@@ -5056,8 +5068,12 @@
       <c r="JG5" t="n">
         <v>3304</v>
       </c>
-      <c r="JH5" t="inlineStr"/>
-      <c r="JI5" t="inlineStr"/>
+      <c r="JH5" t="n">
+        <v>3302</v>
+      </c>
+      <c r="JI5" t="n">
+        <v>3239</v>
+      </c>
       <c r="JJ5" t="inlineStr"/>
       <c r="JK5" t="inlineStr"/>
       <c r="JL5" t="inlineStr"/>
@@ -5843,40 +5859,40 @@
         <v>4665730</v>
       </c>
       <c r="IT6" t="n">
-        <v>4681920</v>
+        <v>4721459</v>
       </c>
       <c r="IU6" t="n">
-        <v>3917894</v>
+        <v>3877211</v>
       </c>
       <c r="IV6" t="n">
-        <v>4734363</v>
+        <v>5003085</v>
       </c>
       <c r="IW6" t="n">
-        <v>5715020</v>
+        <v>5551946</v>
       </c>
       <c r="IX6" t="n">
-        <v>5154037</v>
+        <v>5359621</v>
       </c>
       <c r="IY6" t="n">
-        <v>6797443</v>
+        <v>6901959</v>
       </c>
       <c r="IZ6" t="n">
-        <v>5686157</v>
+        <v>5709320</v>
       </c>
       <c r="JA6" t="n">
-        <v>6321735</v>
+        <v>6338298</v>
       </c>
       <c r="JB6" t="n">
-        <v>5369367</v>
+        <v>5107477</v>
       </c>
       <c r="JC6" t="n">
-        <v>6548088</v>
+        <v>6316729</v>
       </c>
       <c r="JD6" t="n">
-        <v>6942028</v>
+        <v>7031662</v>
       </c>
       <c r="JE6" t="n">
-        <v>7449304</v>
+        <v>7349756</v>
       </c>
       <c r="JF6" t="n">
         <v>7491359</v>
@@ -5884,8 +5900,12 @@
       <c r="JG6" t="n">
         <v>7427827</v>
       </c>
-      <c r="JH6" t="inlineStr"/>
-      <c r="JI6" t="inlineStr"/>
+      <c r="JH6" t="n">
+        <v>9102342</v>
+      </c>
+      <c r="JI6" t="n">
+        <v>9297770</v>
+      </c>
       <c r="JJ6" t="inlineStr"/>
       <c r="JK6" t="inlineStr"/>
       <c r="JL6" t="inlineStr"/>
@@ -6671,40 +6691,40 @@
         <v>44.87</v>
       </c>
       <c r="IT7" t="n">
-        <v>49.11</v>
+        <v>49.4</v>
       </c>
       <c r="IU7" t="n">
-        <v>52.96</v>
+        <v>55.27</v>
       </c>
       <c r="IV7" t="n">
-        <v>58.41</v>
+        <v>58.96</v>
       </c>
       <c r="IW7" t="n">
-        <v>58.87</v>
+        <v>59.18</v>
       </c>
       <c r="IX7" t="n">
-        <v>61.31</v>
+        <v>61.53</v>
       </c>
       <c r="IY7" t="n">
-        <v>64.97</v>
+        <v>64.78</v>
       </c>
       <c r="IZ7" t="n">
-        <v>67.94</v>
+        <v>68.11</v>
       </c>
       <c r="JA7" t="n">
-        <v>66.3</v>
+        <v>66.55</v>
       </c>
       <c r="JB7" t="n">
-        <v>67.12</v>
+        <v>67.2</v>
       </c>
       <c r="JC7" t="n">
-        <v>72.83</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="JD7" t="n">
-        <v>74.48999999999999</v>
+        <v>74.81999999999999</v>
       </c>
       <c r="JE7" t="n">
-        <v>69.16</v>
+        <v>69.02</v>
       </c>
       <c r="JF7" t="n">
         <v>72.48999999999999</v>
@@ -6712,8 +6732,12 @@
       <c r="JG7" t="n">
         <v>80.3</v>
       </c>
-      <c r="JH7" t="inlineStr"/>
-      <c r="JI7" t="inlineStr"/>
+      <c r="JH7" t="n">
+        <v>88.93000000000001</v>
+      </c>
+      <c r="JI7" t="n">
+        <v>95.69</v>
+      </c>
       <c r="JJ7" t="inlineStr"/>
       <c r="JK7" t="inlineStr"/>
       <c r="JL7" t="inlineStr"/>
